--- a/Docs/projetinho.xlsx
+++ b/Docs/projetinho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\coold\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Escopo</t>
   </si>
@@ -390,6 +390,153 @@
 -Informar o número de telefone caso o cliente queira relatar pelo telefone;
 -Ter um chat bot no site para auxílio;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deve haver uma página "Quem somos?" :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Com quem trabalhamos, nossos valores, estratégias, ambições, metas.;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">O site deverá conter um simulador financeiro para reforçar os benefícios do produto: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Porcentagem de perda por viagem com X produto a granel; 
+-Quanto economizaria com a nossa solução;
+-Comparar o valor 50% maior por conta do frete com a perda de alimentos com a distribuidora a granel;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Deve haver uma área de suporte: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Com os campos: Nome, Sobrenome, Email, Empresa ou CNPJ, e a Mensagem;
+-Informar o número de telefone caso o cliente queira relatar pelo telefone;
+-Ter um chat bot no site para auxílio;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criar tabelas de banco de dados no Azure: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Uma tabela para salvar os dados dos usuários informados no requisito 1 ;
+-Uma tabela para os dados coletados no arduino (temperatura, umidade e GPS);</t>
+    </r>
+  </si>
+  <si>
+    <t>Os dados coletados pelo sensor deverão ser enviados para o banco de dados no Azure ;</t>
+  </si>
+  <si>
+    <t>Refazer o LLD;</t>
+  </si>
+  <si>
+    <t>Fazer o manual de instalação;</t>
+  </si>
+  <si>
+    <t>Planilha de homologação;</t>
+  </si>
+  <si>
+    <t>Fazer o documento final do projeto;</t>
+  </si>
+  <si>
+    <t>Power point da apresentação do projeto;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Site institucional na nuvem:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Azure;</t>
+    </r>
+  </si>
+  <si>
+    <t>Mapeamento das tabelas(entidades) em classes Javascript;</t>
+  </si>
+  <si>
+    <t>Fluxograma do processo de atendimento do suporte;</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk configurada e integrada à solução;</t>
+  </si>
+  <si>
+    <t>Modelagem lógica e Dicionário de dados;</t>
+  </si>
+  <si>
+    <t>Script de criação do banco(final);</t>
+  </si>
+  <si>
+    <t>Teste integrado do Analytics;</t>
+  </si>
+  <si>
+    <t>Teste integrado da solução IoT;</t>
   </si>
 </sst>
 </file>
@@ -459,36 +606,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,35 +737,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,13 +1065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -952,13 +1079,13 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+      <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="25">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -966,247 +1093,331 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="25">
         <v>2</v>
       </c>
       <c r="E3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25">
         <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:10" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="25">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="26">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="27">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
         <v>7</v>
       </c>
-      <c r="D7" s="18">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="25">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="25">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="25">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="59.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
         <v>13</v>
       </c>
-      <c r="D9" s="18">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" ht="59.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="C14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="25">
         <v>13</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="25">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>15</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25">
         <v>18</v>
       </c>
-      <c r="D15" s="8">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>16</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="25">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>17</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="25">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>18</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="25">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>19</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="25">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>20</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="25">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>21</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="25">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>16</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>22</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="25">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <f>SUM(E2:E18)</f>
-        <v>110</v>
-      </c>
-      <c r="F20" s="4"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="25">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>24</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="25">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
     </row>
   </sheetData>
   <sortState ref="B2:E18">
@@ -1237,7 +1448,7 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1251,7 +1462,7 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="8">
@@ -1265,7 +1476,7 @@
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8">
@@ -1279,7 +1490,7 @@
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8">
@@ -1293,7 +1504,7 @@
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8">
@@ -1307,7 +1518,7 @@
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8">
@@ -1321,7 +1532,7 @@
       <c r="B7" s="17">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="18">
@@ -1335,7 +1546,7 @@
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="8">
@@ -1349,7 +1560,7 @@
       <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="18">
@@ -1363,7 +1574,7 @@
       <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="8">
@@ -1377,7 +1588,7 @@
       <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8">
@@ -1391,7 +1602,7 @@
       <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="8">
@@ -1405,7 +1616,7 @@
       <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="8">
@@ -1419,7 +1630,7 @@
       <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="8">
@@ -1433,7 +1644,7 @@
       <c r="B15" s="17">
         <v>14</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="8">
@@ -1447,7 +1658,7 @@
       <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8">
@@ -1461,7 +1672,7 @@
       <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="10">
@@ -1475,7 +1686,7 @@
       <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="8">
